--- a/26072023_TCS_CORPORATE/Class 1/Types of Joines.xlsx
+++ b/26072023_TCS_CORPORATE/Class 1/Types of Joines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Courses\Tableau Training - End to End\Class 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F33347-F60F-410F-BBC6-AA8941EF537A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B769E1B0-BA22-4A12-9F11-A137D02C40DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{BCD4849D-48E3-4EED-9744-4ACD4A43C8C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Normal Join</t>
   </si>
@@ -47,16 +47,10 @@
     <t>Data Blending</t>
   </si>
   <si>
-    <t>Data Sources: Same</t>
-  </si>
-  <si>
     <t xml:space="preserve">Same Excel with different sheets - Tableau will consider it as same data source </t>
   </si>
   <si>
     <t>Differnet Excel - Tableau will consider it as a different data sources</t>
-  </si>
-  <si>
-    <t>Data Sources: Different</t>
   </si>
   <si>
     <t xml:space="preserve">Tableau 10.5 </t>
@@ -80,6 +74,25 @@
   </si>
   <si>
     <t>support@rahultiwari.co.in</t>
+  </si>
+  <si>
+    <t>Data Sources: Same 
+Granularity: Different</t>
+  </si>
+  <si>
+    <t>Data Sources: Same
+Granularity: Same</t>
+  </si>
+  <si>
+    <t>Data Sources: Different
+Granularity: Same</t>
+  </si>
+  <si>
+    <t>Data Sources: Different 
+Granularity: Different</t>
+  </si>
+  <si>
+    <t>When we have to do aggregation and join</t>
   </si>
 </sst>
 </file>
@@ -162,12 +175,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -184,8 +191,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -208,40 +221,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -570,90 +615,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="5"/>
+      <c r="D4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="7" t="s">
+      <c r="F6" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="C7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="9"/>
-      <c r="D4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:6" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="C6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A13" r:id="rId1" xr:uid="{DE19E11C-6786-4287-83E6-E903C9B05787}"/>
